--- a/data/trans_camb/P28A_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,58</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,46</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 21,3</t>
+          <t>1,83; 14,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,56</t>
+          <t>-4,67; 3,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 10,11</t>
+          <t>-2,34; 8,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 12,14</t>
+          <t>7,3; 18,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 28,88</t>
+          <t>0,5; 7,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,37</t>
+          <t>3,5; 12,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 18,13</t>
+          <t>5,6; 14,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,93</t>
+          <t>-1,17; 4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,5</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 6,75</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 11,47</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 11,16</t>
+          <t>1,74; 9,05</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>213,0%</t>
+          <t>193,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>-22,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>1118,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1149,24%</t>
+          <t>333,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>330,09%</t>
+          <t>688,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>659,63%</t>
+          <t>374,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>410,89%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>397,66%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57,29%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>170,9%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>128,5%</t>
+          <t>187,73%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,89; 782,04</t>
+          <t>17,05; 679,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 251,13</t>
+          <t>-82,51; 266,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 398,41</t>
+          <t>-50,54; 444,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 455,26</t>
+          <t>202,98; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>150,69; —</t>
+          <t>-55,06; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,38; —</t>
+          <t>70,97; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,5; —</t>
+          <t>128,96; 970,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,27; —</t>
+          <t>-36,92; 322,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>140,77; 963,82</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-39,36; 298,58</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 481,54</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; 440,9</t>
+          <t>35,71; 597,41</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-5,99</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-5,91</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
+          <t>-3,44</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 28,46</t>
+          <t>1,32; 18,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -1,38</t>
+          <t>-9,18; -0,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 1,94</t>
+          <t>-7,22; 2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 10,29</t>
+          <t>-4,89; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 11,06</t>
+          <t>-7,26; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,37</t>
+          <t>-9,26; -1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,5; -1,96</t>
+          <t>-0,13; 11,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -2,17</t>
+          <t>-6,82; -0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 18,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; -0,99</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; -1,53</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 3,41</t>
+          <t>-6,49; -0,62</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>125,06%</t>
+          <t>111,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-68,36%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,79%</t>
+          <t>-33,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>-34,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>-70,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-69,47%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-72,78%</t>
+          <t>-52,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-53,03%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-52,38%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-27,18%</t>
+          <t>-50,24%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 408,24</t>
+          <t>2,96; 368,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,07; -7,09</t>
+          <t>-89,25; -4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 39,69</t>
+          <t>-74,63; 62,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 142,31</t>
+          <t>-58,99; 123,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 124,26</t>
+          <t>-74,4; 59,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 53,83</t>
+          <t>-93,75; -13,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-93,16; -12,76</t>
+          <t>-3,31; 203,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,39; 3,35</t>
+          <t>-77,02; -11,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 204,63</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-74,98; -10,2</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-76,36; -14,14</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-65,77; 41,4</t>
+          <t>-75,15; -6,9</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-19,47</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-11,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,56</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,3</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-15,91</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-14,94</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-13,01</t>
+          <t>-9,43</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -3,03</t>
+          <t>-13,04; -1,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -13,0</t>
+          <t>-18,0; -8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -9,71</t>
+          <t>-17,08; -7,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,62; -10,37</t>
+          <t>-8,38; -1,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -0,03</t>
+          <t>-9,88; -3,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,33; -6,14</t>
+          <t>-10,37; -4,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -7,11</t>
+          <t>-9,36; -2,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -0,15</t>
+          <t>-12,65; -7,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -3,88</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; -11,58</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; -10,47</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; -8,01</t>
+          <t>-12,56; -6,75</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,38%</t>
+          <t>-45,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-87,47%</t>
+          <t>-84,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-77,17%</t>
+          <t>-78,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-78,89%</t>
+          <t>-53,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,86%</t>
+          <t>-79,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-78,11%</t>
+          <t>-84,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-83,06%</t>
+          <t>-48,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-48,09%</t>
+          <t>-82,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,22%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-84,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-79,11%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-68,92%</t>
+          <t>-80,32%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,81; -15,88</t>
+          <t>-69,47; -12,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-95,88; -72,59</t>
+          <t>-94,7; -62,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,25; -52,88</t>
+          <t>-88,95; -58,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,04; -55,98</t>
+          <t>-78,89; -11,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,32; 3,1</t>
+          <t>-92,57; -45,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,06; -45,41</t>
+          <t>-94,65; -56,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-95,05; -58,34</t>
+          <t>-67,36; -24,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,84; 4,81</t>
+          <t>-90,93; -67,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,17; -23,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-92,05; -72,52</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-88,18; -63,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-81,81; -46,81</t>
+          <t>-88,94; -67,17</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-8,07</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-7,44</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
+          <t>-4,76</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 3,24</t>
+          <t>-6,69; 1,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,14; -6,01</t>
+          <t>-11,19; -4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -2,13</t>
+          <t>-9,91; -1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,77</t>
+          <t>-3,47; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 5,27</t>
+          <t>-5,59; -0,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -1,38</t>
+          <t>-6,31; -1,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -3,7</t>
+          <t>-3,99; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 6,55</t>
+          <t>-7,23; -3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,91</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; -5,18</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; -3,81</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 2,7</t>
+          <t>-6,99; -2,51</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-26,02%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-92,69%</t>
+          <t>-92,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-73,66%</t>
+          <t>-74,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>-72,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-71,58%</t>
+          <t>-88,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-88,05%</t>
+          <t>-23,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>-85,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,76%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-85,17%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-78,54%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-24,51%</t>
+          <t>-78,98%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 48,63</t>
+          <t>-64,56; 34,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -71,6</t>
+          <t>-100,0; -68,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,65; -2,86</t>
+          <t>-93,1; 5,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,46; 38,26</t>
+          <t>-63,58; 98,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 101,36</t>
+          <t>-93,19; -1,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,56; -10,36</t>
+          <t>-100,0; -50,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -56,61</t>
+          <t>-53,67; 33,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,64; 125,88</t>
+          <t>-94,04; -62,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 28,1</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-95,1; -65,89</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-92,68; -36,11</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-59,52; 36,69</t>
+          <t>-92,94; -38,81</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-7,81</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-7,92</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-7,58</t>
+          <t>-4,13</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 0,71</t>
+          <t>-6,26; 0,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -3,37</t>
+          <t>-8,31; -2,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -3,47</t>
+          <t>-8,31; -2,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -2,15</t>
+          <t>-5,57; 0,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 3,01</t>
+          <t>-6,97; -1,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -3,56</t>
+          <t>-6,88; -1,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -3,47</t>
+          <t>-4,97; -0,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -2,8</t>
+          <t>-6,36; -2,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -0,84</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-12,08; -4,79</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; -4,73</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; -3,99</t>
+          <t>-6,19; -2,21</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-56,57%</t>
+          <t>-57,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-93,52%</t>
+          <t>-93,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-94,51%</t>
+          <t>-92,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-85,78%</t>
+          <t>-58,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-47,38%</t>
+          <t>-82,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-83,42%</t>
+          <t>-83,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-84,93%</t>
+          <t>-57,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-87,07%</t>
+          <t>-88,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-52,71%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-88,85%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-90,05%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-86,2%</t>
+          <t>-88,56%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 28,1</t>
+          <t>-86,1; 27,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,71</t>
+          <t>-100,0; -55,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -59,4</t>
+          <t>-100,0; -52,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,23</t>
+          <t>-91,24; 33,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 77,49</t>
+          <t>-100,0; -6,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 5,35</t>
+          <t>-100,0; -11,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -18,68</t>
+          <t>-82,1; -14,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,25</t>
+          <t>-97,16; -58,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-81,61; -3,64</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-97,2; -65,63</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-97,29; -69,53</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -48,0</t>
+          <t>-96,98; -60,08</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-2,68</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,42</t>
+          <t>-1,3; 3,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,6</t>
+          <t>-2,45; 1,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,47</t>
+          <t>-2,62; 0,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -0,75</t>
+          <t>-1,2; 0,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,96</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 0,0</t>
+          <t>-1,22; 1,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 2,44</t>
+          <t>-0,95; 1,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,0</t>
+          <t>-1,6; 0,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,55</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 0,29</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 0,48</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; -1,03</t>
+          <t>-1,46; 0,46</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>70,67%</t>
+          <t>64,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-43,65%</t>
+          <t>-36,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-73,63%</t>
+          <t>-65,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>-34,47%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-29,78%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-56,87%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-60,82%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-68,56%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-65,48%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+          <t>-52,98%</t>
         </is>
       </c>
     </row>
@@ -2240,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2270,30 +1901,15 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>-79,59; 352,55</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-69,91; 545,25</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 230,63</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-5,92</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
+          <t>-3,21</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,41</t>
+          <t>-1,7; 2,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -6,09</t>
+          <t>-7,09; -4,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -4,14</t>
+          <t>-6,06; -2,66</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -1,74</t>
+          <t>-1,24; 1,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,86</t>
+          <t>-3,44; -1,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -2,75</t>
+          <t>-3,34; -0,97</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,57</t>
+          <t>-1,15; 1,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,9</t>
+          <t>-4,89; -2,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,41</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; -5,49</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; -4,05</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -2,43</t>
+          <t>-4,25; -2,17</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-78,32%</t>
+          <t>-78,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-61,78%</t>
+          <t>-59,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-44,74%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>-53,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-55,96%</t>
+          <t>-52,44%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-54,41%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-42,54%</t>
+          <t>-68,9%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-69,91%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-58,99%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-43,8%</t>
+          <t>-56,69%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 47,08</t>
+          <t>-20,97; 45,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-87,17; -65,64</t>
+          <t>-86,98; -64,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -41,84</t>
+          <t>-73,08; -37,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-62,87; -17,99</t>
+          <t>-24,85; 41,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 58,5</t>
+          <t>-70,95; -31,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-71,5; -33,02</t>
+          <t>-67,92; -23,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -30,61</t>
+          <t>-19,08; 30,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-64,71; -10,49</t>
+          <t>-77,49; -57,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 36,83</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-78,78; -59,54</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-68,66; -43,9</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-60,01; -25,82</t>
+          <t>-67,58; -41,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
